--- a/data/Booster_Dampner_stanza.xlsx
+++ b/data/Booster_Dampner_stanza.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27630"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonie\Documents\Studium\Master\IE 500 Data Mining\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35E67529-57F1-44D0-BA2C-8A517A06C6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{35E67529-57F1-44D0-BA2C-8A517A06C6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED9605E-8811-4C15-9804-3274823B2858}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{9E90A2CE-A94D-455A-B876-6750B55AB7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,376 +36,589 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>Booster</t>
   </si>
   <si>
+    <t>Dampener</t>
+  </si>
+  <si>
     <t>vielfältiger</t>
   </si>
   <si>
+    <t>Lernaufwand konstant hoch</t>
+  </si>
+  <si>
     <t>Motivation hielt sich sehr stark zurück</t>
   </si>
   <si>
+    <t xml:space="preserve"> viele Meetings</t>
+  </si>
+  <si>
     <t>Vielzahl an Kursen</t>
   </si>
   <si>
+    <t>nimmt viel Zeit</t>
+  </si>
+  <si>
     <t>praxisnäher</t>
   </si>
   <si>
+    <t>Niveau niedriger</t>
+  </si>
+  <si>
     <t>Sprachniveau angemessen</t>
   </si>
   <si>
+    <t>kaum Zeit zu arbeiten</t>
+  </si>
+  <si>
     <t>Sprachkurs angeboten</t>
   </si>
   <si>
-    <t>Dampener</t>
-  </si>
-  <si>
-    <t>Lernaufwand konstant hoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> viele Meetings</t>
-  </si>
-  <si>
-    <t>nimmt viel Zeit</t>
-  </si>
-  <si>
-    <t>Niveau niedriger</t>
+    <t>hoher Workload</t>
   </si>
   <si>
     <t>sehr klein was ich schön und angenehm fand</t>
   </si>
   <si>
+    <t>Bewertung intransparent</t>
+  </si>
+  <si>
     <t>sehr willkommen</t>
   </si>
   <si>
+    <t>verwirrend</t>
+  </si>
+  <si>
     <t>nie Schwierigkeiten</t>
   </si>
   <si>
+    <t>Sprachniveau durchmischt</t>
+  </si>
+  <si>
     <t>einfach neue Leute kennenlernen</t>
   </si>
   <si>
-    <t>kaum Zeit zu arbeiten</t>
+    <t>Learning Agreements eher schwer</t>
   </si>
   <si>
     <t>alles ist entspannt</t>
   </si>
   <si>
+    <t>Biet-Verfahren</t>
+  </si>
+  <si>
     <t>Zeit reicht für alles aus</t>
   </si>
   <si>
-    <t>hoher Workload</t>
-  </si>
-  <si>
-    <t>Bewertung intransparent</t>
-  </si>
-  <si>
-    <t>Sprachniveau durchmischt</t>
+    <t>hohes Niveau</t>
   </si>
   <si>
     <t>Mensen sind sehr empfehlenswert</t>
   </si>
   <si>
+    <t>Mensa teuer</t>
+  </si>
+  <si>
     <t>Studium interaktiver</t>
   </si>
   <si>
+    <t>Mensa sehr teuer</t>
+  </si>
+  <si>
     <t>Note nicht nur aus 100% Exam</t>
   </si>
   <si>
+    <t>Anwesenheitspflicht</t>
+  </si>
+  <si>
     <t>großen Spaß</t>
   </si>
   <si>
+    <t>relativ klein</t>
+  </si>
+  <si>
     <t xml:space="preserve"> langfristig mehr mitgenommen</t>
   </si>
   <si>
-    <t>verwirrend</t>
-  </si>
-  <si>
-    <t>Learning Agreements eher schwer</t>
-  </si>
-  <si>
-    <t>Biet-Verfahren</t>
+    <t>nur ein paar englische Kurse</t>
   </si>
   <si>
     <t>Angebot umfangreich</t>
   </si>
   <si>
+    <t>annrechen</t>
+  </si>
+  <si>
     <t>Einführungswoche sorgt für guten Start ins Auslandssemester</t>
   </si>
   <si>
+    <t>Anforderungen hoch</t>
+  </si>
+  <si>
+    <t>Dozenten gut organsisiert</t>
+  </si>
+  <si>
+    <t>Umrechnung nicht vorteilhaft</t>
+  </si>
+  <si>
     <t>antworten sehr schnell</t>
   </si>
   <si>
-    <t>Dozenten gut organsisiert</t>
+    <t>Kurswahl eingeschränkt</t>
   </si>
   <si>
     <t>eigene Mensa</t>
   </si>
   <si>
+    <t>intensiverer Workload</t>
+  </si>
+  <si>
     <t>eigene Bibliothek</t>
   </si>
   <si>
-    <t>hohes Niveau</t>
-  </si>
-  <si>
-    <t>Mensa teuer</t>
-  </si>
-  <si>
-    <t>Mensa sehr teuer</t>
+    <t>nicht niveauvoller</t>
   </si>
   <si>
     <t>genug Platz</t>
   </si>
   <si>
-    <t>Anwesenheitspflicht</t>
+    <t>keine kostengünstige Mensa</t>
   </si>
   <si>
     <t>Kursangebot war riesig</t>
   </si>
   <si>
+    <t>Arbeitsaufwand unter dem Semester größer als in Mannheim</t>
+  </si>
+  <si>
     <t>Kursangebot riesig</t>
   </si>
   <si>
+    <t>Corona</t>
+  </si>
+  <si>
     <t>Kursangebot groß</t>
   </si>
   <si>
+    <t>einiges gefordert</t>
+  </si>
+  <si>
     <t>Campus bietet was man braucht</t>
   </si>
   <si>
-    <t>relativ klein</t>
-  </si>
-  <si>
-    <t>nur ein paar englische Kurse</t>
-  </si>
-  <si>
-    <t>annrechen</t>
+    <t>sehr zeitintensiv</t>
   </si>
   <si>
     <t>Dozierenden sehr qualifiziert</t>
   </si>
   <si>
+    <t>mehr zu tun</t>
+  </si>
+  <si>
     <t>System gut gefallen</t>
   </si>
   <si>
+    <t>keine Mensa</t>
+  </si>
+  <si>
     <t>genug Freizeit</t>
   </si>
   <si>
+    <t>unorganisiert</t>
+  </si>
+  <si>
     <t>gute Organisation</t>
   </si>
   <si>
-    <t>Anforderungen hoch</t>
-  </si>
-  <si>
-    <t>Umrechnung nicht vorteilhaft</t>
-  </si>
-  <si>
-    <t>Kurswahl eingeschränkt</t>
-  </si>
-  <si>
-    <t>intensiverer Workload</t>
-  </si>
-  <si>
-    <t>nicht niveauvoller</t>
-  </si>
-  <si>
-    <t>keine kostengünstige Mensa</t>
+    <t>anspruchsvoll</t>
   </si>
   <si>
     <t>Teilnahme an Supperschool</t>
   </si>
   <si>
+    <t>nicht bestanden</t>
+  </si>
+  <si>
     <t>Campus ganz nett</t>
   </si>
   <si>
+    <t>wenig Zeit</t>
+  </si>
+  <si>
     <t>Campus nett</t>
   </si>
   <si>
+    <t>wenig studentische initiativen</t>
+  </si>
+  <si>
     <t>Campus schön</t>
   </si>
   <si>
-    <t>Arbeitsaufwand unter dem Semester größer als in Mannheim</t>
+    <t>unter dem gewohnten Niveau</t>
   </si>
   <si>
     <t>Luft besser</t>
   </si>
   <si>
+    <t>Enttäuschung</t>
+  </si>
+  <si>
     <t>Campus recht grün</t>
   </si>
   <si>
+    <t>enttäuscht</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Campus ist riesig</t>
   </si>
   <si>
+    <t>kontinuierlicher Aufwand</t>
+  </si>
+  <si>
     <t>Vielzahl von angebotenen Kursen</t>
   </si>
   <si>
+    <t>Preise hoch</t>
+  </si>
+  <si>
     <t>zahlreiche extracurriculare Aktivitäten</t>
   </si>
   <si>
+    <t xml:space="preserve">teuer </t>
+  </si>
+  <si>
     <t>leicht zu erreichen</t>
   </si>
   <si>
+    <t>extrem teuer</t>
+  </si>
+  <si>
     <t>gute Lehre</t>
   </si>
   <si>
+    <t>überteuert</t>
+  </si>
+  <si>
     <t>gute Lehre  mit qualitätivem Schwerpunkt</t>
   </si>
   <si>
+    <t>arbeitsintensiv</t>
+  </si>
+  <si>
     <t>breites Spektrum an Sprachnangeboten</t>
   </si>
   <si>
-    <t>einiges gefordert</t>
+    <t>sehr schlecht</t>
   </si>
   <si>
     <t>schnell zurecht</t>
   </si>
   <si>
+    <t>schlecht verstehen</t>
+  </si>
+  <si>
     <t>familiär</t>
   </si>
   <si>
+    <t>zusätzlicher Workload</t>
+  </si>
+  <si>
     <t>flexibel</t>
   </si>
   <si>
-    <t>sehr zeitintensiv</t>
+    <t>nicht empfehlenswert</t>
   </si>
   <si>
     <t>sehr vielfältig</t>
   </si>
   <si>
+    <t>keine normalverteilte Bewertung</t>
+  </si>
+  <si>
     <t>interessant</t>
   </si>
   <si>
+    <t>recht teuer</t>
+  </si>
+  <si>
     <t>sehr nett</t>
   </si>
   <si>
+    <t>Kurswahl begrenzt</t>
+  </si>
+  <si>
     <t>hilfsbereit</t>
   </si>
   <si>
+    <t>Kurswahl sehr begrenzt</t>
+  </si>
+  <si>
     <t>günstiges Essen</t>
   </si>
   <si>
-    <t>mehr zu tun</t>
-  </si>
-  <si>
-    <t>keine Mensa</t>
-  </si>
-  <si>
-    <t>unorganisiert</t>
-  </si>
-  <si>
-    <t>anspruchsvoll</t>
-  </si>
-  <si>
-    <t>nicht bestanden</t>
-  </si>
-  <si>
-    <t>wenig studentische initiativen</t>
-  </si>
-  <si>
-    <t>unter dem gewohnten Niveau</t>
-  </si>
-  <si>
-    <t>Corona</t>
-  </si>
-  <si>
-    <t>wenig Zeit</t>
-  </si>
-  <si>
-    <t>Enttäuschung</t>
-  </si>
-  <si>
-    <t>enttäuscht</t>
+    <t>schlecht</t>
   </si>
   <si>
     <t>gut zu bewältigen</t>
   </si>
   <si>
+    <t>zeitintensiv</t>
+  </si>
+  <si>
+    <t>Sprachkurse</t>
+  </si>
+  <si>
+    <t>schwer</t>
+  </si>
+  <si>
     <t>frisch renoviert</t>
   </si>
   <si>
+    <t>durchmischt</t>
+  </si>
+  <si>
     <t>idyllisch</t>
   </si>
   <si>
+    <t>keine</t>
+  </si>
+  <si>
     <t>Workload angenehm</t>
   </si>
   <si>
+    <t>überschaubar</t>
+  </si>
+  <si>
     <t>Kursangebot vielfältig</t>
   </si>
   <si>
+    <t>parallel</t>
+  </si>
+  <si>
     <t>Arbeitsaufwand gering</t>
   </si>
   <si>
-    <t>kontinuierlicher Aufwand</t>
-  </si>
-  <si>
-    <t>Preise hoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teuer </t>
-  </si>
-  <si>
-    <t>extrem teuer</t>
-  </si>
-  <si>
-    <t>überteuert</t>
-  </si>
-  <si>
-    <t>Sprachkurse</t>
-  </si>
-  <si>
-    <t>arbeitsintensiv</t>
-  </si>
-  <si>
-    <t>sehr schlecht</t>
-  </si>
-  <si>
-    <t>schlecht verstehen</t>
-  </si>
-  <si>
-    <t>zusätzlicher Workload</t>
-  </si>
-  <si>
-    <t>nicht empfehlenswert</t>
-  </si>
-  <si>
-    <t>keine normalverteilte Bewertung</t>
+    <t>beschränkt</t>
   </si>
   <si>
     <t>reisen möglich</t>
   </si>
   <si>
+    <t>teuere</t>
+  </si>
+  <si>
     <t>work-life-balance</t>
   </si>
   <si>
+    <t>teures</t>
+  </si>
+  <si>
     <t>strukturiert</t>
   </si>
   <si>
+    <t>teueres</t>
+  </si>
+  <si>
     <t>effektive Lernumgebung</t>
   </si>
   <si>
+    <t>kostenpflichtig</t>
+  </si>
+  <si>
     <t>offen</t>
   </si>
   <si>
+    <t>Probleme</t>
+  </si>
+  <si>
     <t>verschiedene Cafés</t>
   </si>
   <si>
+    <t>Problem</t>
+  </si>
+  <si>
     <t>große Auswahl</t>
   </si>
   <si>
-    <t>recht teuer</t>
-  </si>
-  <si>
-    <t>Kurswahl begrenzt</t>
-  </si>
-  <si>
-    <t>Kurswahl sehr begrenzt</t>
+    <t>inkonsistent</t>
+  </si>
+  <si>
+    <t>schnell</t>
+  </si>
+  <si>
+    <t>aufwendig</t>
+  </si>
+  <si>
+    <t>möglich</t>
+  </si>
+  <si>
+    <t>aufwendiger</t>
+  </si>
+  <si>
+    <t>günstig</t>
+  </si>
+  <si>
+    <t>schlechter</t>
+  </si>
+  <si>
+    <t>vielfältig</t>
+  </si>
+  <si>
+    <t>schlechtes</t>
+  </si>
+  <si>
+    <t>nett</t>
+  </si>
+  <si>
+    <t>chaotisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freundlich </t>
+  </si>
+  <si>
+    <t>riesig</t>
+  </si>
+  <si>
+    <t>angemessen</t>
+  </si>
+  <si>
+    <t>willkommen</t>
+  </si>
+  <si>
+    <t>schön</t>
+  </si>
+  <si>
+    <t>genügend</t>
+  </si>
+  <si>
+    <t>interaktiv</t>
+  </si>
+  <si>
+    <t>interaktiver</t>
+  </si>
+  <si>
+    <t>ungestört</t>
+  </si>
+  <si>
+    <t>schöner</t>
+  </si>
+  <si>
+    <t>groß</t>
+  </si>
+  <si>
+    <t>Gemeinschaftsräume</t>
+  </si>
+  <si>
+    <t>aufgenommen</t>
+  </si>
+  <si>
+    <t>viel</t>
+  </si>
+  <si>
+    <t>viele</t>
+  </si>
+  <si>
+    <t>kostenlos</t>
+  </si>
+  <si>
+    <t>kostenlose</t>
+  </si>
+  <si>
+    <t>kostenloser</t>
+  </si>
+  <si>
+    <t>günstige</t>
+  </si>
+  <si>
+    <t>günstiger</t>
+  </si>
+  <si>
+    <t>zahlreiche</t>
+  </si>
+  <si>
+    <t>begeistert</t>
+  </si>
+  <si>
+    <t>wertvoll</t>
+  </si>
+  <si>
+    <t>locker</t>
+  </si>
+  <si>
+    <t>lockerer</t>
+  </si>
+  <si>
+    <t>lockere</t>
+  </si>
+  <si>
+    <t>gefächert</t>
+  </si>
+  <si>
+    <t>freundliche</t>
+  </si>
+  <si>
+    <t>freundliches</t>
+  </si>
+  <si>
+    <t>verständnisvolle</t>
+  </si>
+  <si>
+    <t>verständnisvolles</t>
+  </si>
+  <si>
+    <t>große</t>
+  </si>
+  <si>
+    <t>großer</t>
+  </si>
+  <si>
+    <t>schönster</t>
+  </si>
+  <si>
+    <t>entspannt</t>
+  </si>
+  <si>
+    <t>entspannter</t>
+  </si>
+  <si>
+    <t>entspannte</t>
+  </si>
+  <si>
+    <t>Möglichkeiten</t>
+  </si>
+  <si>
+    <t>sozial</t>
+  </si>
+  <si>
+    <t>soziale</t>
+  </si>
+  <si>
+    <t>soziales</t>
+  </si>
+  <si>
+    <t>Freizeit</t>
+  </si>
+  <si>
+    <t>machbar</t>
+  </si>
+  <si>
+    <t>Multikulturell</t>
+  </si>
+  <si>
+    <t>Multikulturalität</t>
+  </si>
+  <si>
+    <t>verteilt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,514 +1001,829 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB72381-8E11-4D8D-91C8-F0F7C419D2BC}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="25" spans="1:2" ht="15.6" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="B51" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="B52" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="B54" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="B55" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="B60" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
